--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tac1-Tacr2.xlsx
@@ -549,10 +549,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03941866666666666</v>
+        <v>0.01483866666666667</v>
       </c>
       <c r="N2">
-        <v>0.118256</v>
+        <v>0.044516</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02514892537955556</v>
+        <v>0.009467000086222222</v>
       </c>
       <c r="R2">
-        <v>0.226340328416</v>
+        <v>0.085203000776</v>
       </c>
       <c r="S2">
         <v>1</v>
